--- a/eval/eval.xlsx
+++ b/eval/eval.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Keim\Projects\Repos\BERT4DAT\eval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Keim\Projects\Repos\BERT4DAT_github\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Best" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="70">
   <si>
     <t>Prec</t>
   </si>
@@ -662,48 +662,12 @@
       <t xml:space="preserve"> Data: ['1_classCorpus_Shrunk.tsv']</t>
     </r>
   </si>
-  <si>
-    <t>model: bert-base-uncased, max_lr: 2e-05, epochs: 10, bs: 2, train_size: 0.9375, Loss: CrossEntropyLoss(), Threshold: 0.75, Seed: 904727489, Data: ['1_classCorpus_BegOnly_512.tsv']</t>
-  </si>
-  <si>
-    <t>V2-2</t>
-  </si>
-  <si>
-    <t>V2-3</t>
-  </si>
-  <si>
-    <t>model: bert-base-uncased, max_lr: 2e-05, epochs: 10, bs: 2, train_size: 0.9375, weight decay: 0.01, Threshold: 0.75, Seed: 904727489, Data: ['1_classCorpus_BegOnly_512.tsv']</t>
-  </si>
-  <si>
-    <t>V2-4</t>
-  </si>
-  <si>
-    <t>model: bert-base-uncased, max_lr: 2e-05, epochs: 10, bs: 2, train_size: 0.9375, weight decay: 0.01, Threshold: 0.75, Seed: 904727489, Data: ['1_classCorpus_Shrunk.tsv']; Sigmoid</t>
-  </si>
-  <si>
-    <t>V2-5</t>
-  </si>
-  <si>
-    <t>model: bert-base-uncased, max_lr: 2e-05, epochs: 10, bs: 2, train_size: 0.9375, weight decay: 0.01, Threshold: 0.75, Seed: 904727489, Data: ['1_classCorpus_Shrunk.tsv']; Softmax</t>
-  </si>
-  <si>
-    <t>V2-6</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>model: bert-base-uncased, max_lr: 2e-05, epochs: 10, bs: 2, train_size: 0.9375, weight decay: 0.01, Threshold: 0.75, Seed: 904727489, Data: ['1_classCorpus_Shrunk.tsv']</t>
-  </si>
-  <si>
-    <t>model: bert-base-uncased, max_lr: 2e-05, epochs: 10, bs: 2, train_size: 0.9375, weight decay: 0.01, Threshold: 0.75, Seed: 904727489, Data: ['1_classCorpus_Shrunk.tsv'], Oversampling</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,11 +716,6 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -787,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -803,12 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,23 +1045,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1134,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1118,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1149,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1233,7 +1186,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1275,27 +1228,27 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1321,7 +1274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1305,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1336,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1420,12 +1373,12 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1440,17 +1393,17 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -1476,7 +1429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1460,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1491,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1575,17 +1528,17 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -1611,7 +1564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1595,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1673,7 +1626,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1710,17 +1663,17 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -1746,7 +1699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1777,7 +1730,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +1761,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1845,17 +1798,17 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>3</v>
       </c>
@@ -1881,7 +1834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1865,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1896,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1990,28 +1943,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -2037,7 +1990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +2021,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2099,7 +2052,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2136,12 +2089,12 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2158,17 +2111,17 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -2194,7 +2147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2178,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2256,7 +2209,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2293,17 +2246,17 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -2329,7 +2282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2360,7 +2313,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2391,7 +2344,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -2428,17 +2381,17 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2495,7 +2448,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2479,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2563,17 +2516,17 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -2599,7 +2552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2583,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2661,7 +2614,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2698,17 +2651,17 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -2734,7 +2687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2718,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -2796,7 +2749,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2833,17 +2786,17 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -2869,7 +2822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2900,7 +2853,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -2931,7 +2884,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2968,17 +2921,17 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>3</v>
       </c>
@@ -3004,7 +2957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3035,7 +2988,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -3066,7 +3019,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -3103,17 +3056,17 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>3</v>
       </c>
@@ -3139,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3170,7 +3123,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -3201,7 +3154,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -3238,7 +3191,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3255,17 +3208,17 @@
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>3</v>
       </c>
@@ -3291,7 +3244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3275,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3353,7 +3306,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -3390,7 +3343,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>53</v>
       </c>
@@ -3398,17 +3351,17 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -3434,7 +3387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3465,7 +3418,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -3496,7 +3449,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -3533,7 +3486,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -3549,30 +3502,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -3598,7 +3551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3629,7 +3582,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -3660,7 +3613,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3697,7 +3650,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -3705,17 +3658,17 @@
         <v>0.8841</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -3741,7 +3694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3772,7 +3725,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -3803,7 +3756,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3840,7 +3793,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -3848,1597 +3801,739 @@
         <v>0.89639999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" t="s">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E25" t="s">
         <v>6</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F25" t="s">
         <v>7</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G25" t="s">
         <v>8</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I25" t="s">
         <v>9</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>6.6666669999999997E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.31034483000000002</v>
-      </c>
-      <c r="D21">
-        <v>0.58620689999999998</v>
-      </c>
-      <c r="E21">
-        <v>0.88888889000000004</v>
-      </c>
-      <c r="F21">
-        <v>0.67948717999999997</v>
-      </c>
-      <c r="G21">
-        <v>0.93831169000000003</v>
-      </c>
-      <c r="I21">
-        <f>ROUND(SUM(B21:F21)/5,2)</f>
-        <v>0.51</v>
-      </c>
-      <c r="J21">
-        <f>ROUND(SUM(B21:G21)/6,2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.31428571</v>
+      </c>
+      <c r="D26">
+        <v>0.57575757999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.95833332999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.68</v>
+      </c>
+      <c r="G26">
+        <v>0.93496458000000005</v>
+      </c>
+      <c r="I26">
+        <f>ROUND(SUM(B26:F26)/5,2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J26">
+        <f>ROUND(SUM(B26:G26)/6,2)</f>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <v>0.5</v>
       </c>
-      <c r="C22">
-        <v>0.375</v>
-      </c>
-      <c r="D22">
-        <v>0.68</v>
-      </c>
-      <c r="E22">
-        <v>0.38095237999999998</v>
-      </c>
-      <c r="F22">
-        <v>0.64634146000000003</v>
-      </c>
-      <c r="G22">
-        <v>0.95695364000000005</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ref="I22" si="6">ROUND(SUM(B22:F22)/5,2)</f>
+      <c r="C27">
+        <v>0.45833332999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.73076923000000005</v>
+      </c>
+      <c r="E27">
+        <v>0.27710843000000002</v>
+      </c>
+      <c r="F27">
+        <v>0.62962963000000005</v>
+      </c>
+      <c r="G27">
+        <v>0.96222664000000002</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I28" si="6">ROUND(SUM(B27:F27)/5,2)</f>
         <v>0.52</v>
       </c>
-      <c r="J22">
-        <f t="shared" ref="J22:J23" si="7">ROUND(SUM(B22:G22)/6,2)</f>
+      <c r="J27">
+        <f t="shared" ref="J27:J28" si="7">ROUND(SUM(B27:G27)/6,2)</f>
         <v>0.59</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B23">
-        <f>ROUND(2*(B21*B22)/(B21+B22),2)</f>
-        <v>0.12</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:F23" si="8">ROUND(2*(C21*C22)/(C21+C22),2)</f>
-        <v>0.34</v>
-      </c>
-      <c r="D23">
+      <c r="B28">
+        <f>ROUND(2*(B26*B27)/(B26+B27),2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:G28" si="8">ROUND(2*(C26*C27)/(C26+C27),2)</f>
+        <v>0.37</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="8"/>
-        <v>0.63</v>
-      </c>
-      <c r="E23">
+        <v>0.64</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="8"/>
-        <v>0.53</v>
-      </c>
-      <c r="F23">
+        <v>0.43</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="8"/>
+        <v>0.65</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>0.48</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>0.90259999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <v>0.29310344999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.45238095</v>
+      </c>
+      <c r="E35">
+        <v>0.88888888899999996</v>
+      </c>
+      <c r="F35">
+        <v>0.61538462000000005</v>
+      </c>
+      <c r="G35">
+        <v>0.94451872000000003</v>
+      </c>
+      <c r="I35">
+        <f>ROUND(SUM(B35:F35)/5,2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J35">
+        <f>ROUND(SUM(B35:G35)/6,2)</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <v>0.70833332999999998</v>
+      </c>
+      <c r="D36">
+        <v>0.73076923000000005</v>
+      </c>
+      <c r="E36">
+        <v>0.38554217000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.69135802000000002</v>
+      </c>
+      <c r="G36">
+        <v>0.93638171000000003</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I37" si="9">ROUND(SUM(B36:F36)/5,2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J37" si="10">ROUND(SUM(B36:G36)/6,2)</f>
         <v>0.66</v>
       </c>
-      <c r="G23">
-        <f>ROUND(2*(G21*G22)/(G21+G22),2)</f>
-        <v>0.95</v>
-      </c>
-      <c r="I23">
-        <f>ROUND(SUM(B23:F23)/5,2)</f>
-        <v>0.46</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="7"/>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24">
-        <v>0.90159999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>0.14285713999999999</v>
-      </c>
-      <c r="C29">
-        <v>0.4</v>
-      </c>
-      <c r="D29">
-        <v>0.4</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.69047619000000005</v>
-      </c>
-      <c r="G29">
-        <v>0.94568063000000002</v>
-      </c>
-      <c r="I29">
-        <f>ROUND(SUM(B29:F29)/5,2)</f>
-        <v>0.53</v>
-      </c>
-      <c r="J29">
-        <f>ROUND(SUM(B29:G29)/6,2)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <f>ROUND(2*(B35*B36)/(B35+B36),2)</f>
         <v>0.5</v>
       </c>
-      <c r="C30">
-        <v>0.5</v>
-      </c>
-      <c r="D30">
-        <v>0.72</v>
-      </c>
-      <c r="E30">
-        <v>0.38554217000000002</v>
-      </c>
-      <c r="F30">
-        <v>0.70731706999999999</v>
-      </c>
-      <c r="G30">
-        <v>0.95695364000000005</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ref="I30" si="9">ROUND(SUM(B30:F30)/5,2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ref="J30:J31" si="10">ROUND(SUM(B30:G30)/6,2)</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <f>ROUND(2*(B29*B30)/(B29+B30),2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:F31" si="11">ROUND(2*(C29*C30)/(C29+C30),2)</f>
-        <v>0.44</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="11"/>
-        <v>0.51</v>
-      </c>
-      <c r="E31">
+      <c r="C37">
+        <f t="shared" ref="C37:G37" si="11">ROUND(2*(C35*C36)/(C35+C36),2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="11"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="F31">
+      <c r="E37">
         <f t="shared" si="11"/>
+        <v>0.54</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="11"/>
+        <v>0.65</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>0.94</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="9"/>
+        <v>0.53</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>0.89159999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0.25</v>
+      </c>
+      <c r="C44">
+        <v>0.29032258</v>
+      </c>
+      <c r="D44">
+        <v>0.42553191000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.85365853999999997</v>
+      </c>
+      <c r="F44">
+        <v>0.60215054000000001</v>
+      </c>
+      <c r="G44">
+        <v>0.94922139000000005</v>
+      </c>
+      <c r="I44">
+        <f>ROUND(SUM(B44:F44)/5,2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="J44">
+        <f>ROUND(SUM(B44:G44)/6,2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="C45">
+        <v>0.75</v>
+      </c>
+      <c r="D45">
+        <v>0.76923076999999995</v>
+      </c>
+      <c r="E45">
+        <v>0.42168675</v>
+      </c>
+      <c r="F45">
         <v>0.7</v>
       </c>
-      <c r="G31">
-        <f>ROUND(2*(G29*G30)/(G29+G30),2)</f>
-        <v>0.95</v>
-      </c>
-      <c r="I31">
-        <f>ROUND(SUM(B31:F31)/5,2)</f>
-        <v>0.49</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="10"/>
+      <c r="G45">
+        <v>0.92909211000000003</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:I46" si="12">ROUND(SUM(B45:F45)/5,2)</f>
+        <v>0.63</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:J46" si="13">ROUND(SUM(B45:G45)/6,2)</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <f>ROUND(2*(B44*B45)/(B44+B45),2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:G46" si="14">ROUND(2*(C44*C45)/(C44+C45),2)</f>
+        <v>0.42</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="14"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="14"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32">
-        <v>0.9073</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75">
-      <c r="A37" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>0.2</v>
-      </c>
-      <c r="C41">
-        <v>0.31428571</v>
-      </c>
-      <c r="D41">
-        <v>0.57575757999999999</v>
-      </c>
-      <c r="E41">
-        <v>0.95833332999999998</v>
-      </c>
-      <c r="F41">
-        <v>0.68</v>
-      </c>
-      <c r="G41">
-        <v>0.93496458000000005</v>
-      </c>
-      <c r="I41">
-        <f>ROUND(SUM(B41:F41)/5,2)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J41">
-        <f>ROUND(SUM(B41:G41)/6,2)</f>
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>0.5</v>
-      </c>
-      <c r="C42">
-        <v>0.45833332999999998</v>
-      </c>
-      <c r="D42">
-        <v>0.73076923000000005</v>
-      </c>
-      <c r="E42">
-        <v>0.27710843000000002</v>
-      </c>
-      <c r="F42">
-        <v>0.62962963000000005</v>
-      </c>
-      <c r="G42">
-        <v>0.96222664000000002</v>
-      </c>
-      <c r="I42">
-        <f t="shared" ref="I42:I43" si="12">ROUND(SUM(B42:F42)/5,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="J42">
-        <f t="shared" ref="J42:J43" si="13">ROUND(SUM(B42:G42)/6,2)</f>
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <f>ROUND(2*(B41*B42)/(B41+B42),2)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43:G43" si="14">ROUND(2*(C41*C42)/(C41+C42),2)</f>
-        <v>0.37</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="14"/>
-        <v>0.64</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="14"/>
-        <v>0.43</v>
-      </c>
-      <c r="F43">
+      <c r="F46">
         <f t="shared" si="14"/>
         <v>0.65</v>
       </c>
-      <c r="G43">
+      <c r="G46">
         <f t="shared" si="14"/>
-        <v>0.95</v>
-      </c>
-      <c r="I43">
+        <v>0.94</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="12"/>
-        <v>0.48</v>
-      </c>
-      <c r="J43">
+        <v>0.5</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="13"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
+        <v>0.88859999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0.33333332999999998</v>
+      </c>
+      <c r="C53">
+        <v>0.20588234999999999</v>
+      </c>
+      <c r="D53">
+        <v>0.46341462999999999</v>
+      </c>
+      <c r="E53">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F53">
+        <v>0.72131148</v>
+      </c>
+      <c r="G53">
+        <v>0.93849205999999996</v>
+      </c>
+      <c r="I53">
+        <f>ROUND(SUM(B53:F53)/5,2)</f>
+        <v>0.51</v>
+      </c>
+      <c r="J53">
+        <f>ROUND(SUM(B53:G53)/6,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+      <c r="C54">
+        <v>0.60869565000000003</v>
+      </c>
+      <c r="D54">
+        <v>0.73076923000000005</v>
+      </c>
+      <c r="E54">
+        <v>0.38823529000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G54">
+        <v>0.94035785000000005</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:I55" si="15">ROUND(SUM(B54:F54)/5,2)</f>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44">
-        <v>0.90259999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50">
-        <v>0.5</v>
-      </c>
-      <c r="C50">
-        <v>0.29310344999999999</v>
-      </c>
-      <c r="D50">
-        <v>0.45238095</v>
-      </c>
-      <c r="E50">
-        <v>0.88888888899999996</v>
-      </c>
-      <c r="F50">
-        <v>0.61538462000000005</v>
-      </c>
-      <c r="G50">
-        <v>0.94451872000000003</v>
-      </c>
-      <c r="I50">
-        <f>ROUND(SUM(B50:F50)/5,2)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J50">
-        <f>ROUND(SUM(B50:G50)/6,2)</f>
+      <c r="J54">
+        <f t="shared" ref="J54:J55" si="16">ROUND(SUM(B54:G54)/6,2)</f>
         <v>0.62</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>0.5</v>
-      </c>
-      <c r="C51">
-        <v>0.70833332999999998</v>
-      </c>
-      <c r="D51">
-        <v>0.73076923000000005</v>
-      </c>
-      <c r="E51">
-        <v>0.38554217000000002</v>
-      </c>
-      <c r="F51">
-        <v>0.69135802000000002</v>
-      </c>
-      <c r="G51">
-        <v>0.93638171000000003</v>
-      </c>
-      <c r="I51">
-        <f t="shared" ref="I51:I52" si="15">ROUND(SUM(B51:F51)/5,2)</f>
-        <v>0.6</v>
-      </c>
-      <c r="J51">
-        <f t="shared" ref="J51:J52" si="16">ROUND(SUM(B51:G51)/6,2)</f>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>2</v>
       </c>
-      <c r="B52">
-        <f>ROUND(2*(B50*B51)/(B50+B51),2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:G52" si="17">ROUND(2*(C50*C51)/(C50+C51),2)</f>
-        <v>0.41</v>
-      </c>
-      <c r="D52">
+      <c r="B55">
+        <f>ROUND(2*(B53*B54)/(B53+B54),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:G55" si="17">ROUND(2*(C53*C54)/(C53+C54),2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="17"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E52">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="17"/>
-        <v>0.54</v>
-      </c>
-      <c r="F52">
+        <v>0.53</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="17"/>
-        <v>0.65</v>
-      </c>
-      <c r="G52">
+        <v>0.62</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="17"/>
         <v>0.94</v>
       </c>
-      <c r="I52">
+      <c r="I55">
         <f t="shared" si="15"/>
+        <v>0.49</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="16"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>0.88859999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0.4</v>
+      </c>
+      <c r="D64">
+        <v>0.4</v>
+      </c>
+      <c r="E64">
+        <v>0.82142857000000002</v>
+      </c>
+      <c r="F64">
+        <v>0.59523809999999999</v>
+      </c>
+      <c r="G64">
+        <v>0.95345745000000004</v>
+      </c>
+      <c r="I64">
+        <f>ROUND(SUM(B64:F64)/5,2)</f>
+        <v>0.44</v>
+      </c>
+      <c r="J64">
+        <f>ROUND(SUM(B64:G64)/6,2)</f>
         <v>0.53</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="16"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>0.89159999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
         <v>0</v>
       </c>
-      <c r="B59">
-        <v>0.25</v>
-      </c>
-      <c r="C59">
-        <v>0.29032258</v>
-      </c>
-      <c r="D59">
-        <v>0.42553191000000001</v>
-      </c>
-      <c r="E59">
-        <v>0.85365853999999997</v>
-      </c>
-      <c r="F59">
-        <v>0.60215054000000001</v>
-      </c>
-      <c r="G59">
-        <v>0.94922139000000005</v>
-      </c>
-      <c r="I59">
-        <f>ROUND(SUM(B59:F59)/5,2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="J59">
-        <f>ROUND(SUM(B59:G59)/6,2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60">
-        <v>0.5</v>
-      </c>
-      <c r="C60">
-        <v>0.75</v>
-      </c>
-      <c r="D60">
-        <v>0.76923076999999995</v>
-      </c>
-      <c r="E60">
-        <v>0.42168675</v>
-      </c>
-      <c r="F60">
-        <v>0.7</v>
-      </c>
-      <c r="G60">
-        <v>0.92909211000000003</v>
-      </c>
-      <c r="I60">
-        <f t="shared" ref="I60:I61" si="18">ROUND(SUM(B60:F60)/5,2)</f>
-        <v>0.63</v>
-      </c>
-      <c r="J60">
-        <f t="shared" ref="J60:J61" si="19">ROUND(SUM(B60:G60)/6,2)</f>
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
+      <c r="C65">
+        <v>0.30769231000000002</v>
+      </c>
+      <c r="D65">
+        <v>0.85714285999999995</v>
+      </c>
+      <c r="E65">
+        <v>0.52272726999999997</v>
+      </c>
+      <c r="F65">
+        <v>0.60975610000000002</v>
+      </c>
+      <c r="G65">
+        <v>0.94966887</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ref="I65:I66" si="18">ROUND(SUM(B65:F65)/5,2)</f>
+        <v>0.46</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65:J66" si="19">ROUND(SUM(B65:G65)/6,2)</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>2</v>
       </c>
-      <c r="B61">
-        <f>ROUND(2*(B59*B60)/(B59+B60),2)</f>
-        <v>0.33</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ref="C61:G61" si="20">ROUND(2*(C59*C60)/(C59+C60),2)</f>
-        <v>0.42</v>
-      </c>
-      <c r="D61">
+      <c r="B66">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:G66" si="20">ROUND(2*(C64*C65)/(C64+C65),2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="D66">
         <f t="shared" si="20"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E61">
+      <c r="E66">
         <f t="shared" si="20"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F61">
+        <v>0.64</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="20"/>
-        <v>0.65</v>
-      </c>
-      <c r="G61">
+        <v>0.6</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="20"/>
-        <v>0.94</v>
-      </c>
-      <c r="I61">
+        <v>0.95</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="18"/>
-        <v>0.5</v>
-      </c>
-      <c r="J61">
+        <v>0.43</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="19"/>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>53</v>
       </c>
-      <c r="B62">
-        <v>0.88859999999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68">
-        <v>0.33333332999999998</v>
-      </c>
-      <c r="C68">
-        <v>0.20588234999999999</v>
-      </c>
-      <c r="D68">
-        <v>0.46341462999999999</v>
-      </c>
-      <c r="E68">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="F68">
-        <v>0.72131148</v>
-      </c>
-      <c r="G68">
-        <v>0.93849205999999996</v>
-      </c>
-      <c r="I68">
-        <f>ROUND(SUM(B68:F68)/5,2)</f>
-        <v>0.51</v>
-      </c>
-      <c r="J68">
-        <f>ROUND(SUM(B68:G68)/6,2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69">
-        <v>0.5</v>
-      </c>
-      <c r="C69">
-        <v>0.60869565000000003</v>
-      </c>
-      <c r="D69">
-        <v>0.73076923000000005</v>
-      </c>
-      <c r="E69">
-        <v>0.38823529000000001</v>
-      </c>
-      <c r="F69">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G69">
-        <v>0.94035785000000005</v>
-      </c>
-      <c r="I69">
-        <f t="shared" ref="I69:I70" si="21">ROUND(SUM(B69:F69)/5,2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J69">
-        <f t="shared" ref="J69:J70" si="22">ROUND(SUM(B69:G69)/6,2)</f>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70">
-        <f>ROUND(2*(B68*B69)/(B68+B69),2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ref="C70:G70" si="23">ROUND(2*(C68*C69)/(C68+C69),2)</f>
-        <v>0.31</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="23"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="23"/>
-        <v>0.53</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="23"/>
-        <v>0.62</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="23"/>
-        <v>0.94</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="21"/>
-        <v>0.49</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="22"/>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71">
-        <v>0.88859999999999995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" t="s">
-        <v>9</v>
-      </c>
-      <c r="J76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77">
-        <v>0.125</v>
-      </c>
-      <c r="C77">
-        <v>0.28333332999999999</v>
-      </c>
-      <c r="D77">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E77">
-        <v>0.92105263000000004</v>
-      </c>
-      <c r="F77">
-        <v>0.72289157000000004</v>
-      </c>
-      <c r="G77">
-        <v>0.95381526000000005</v>
-      </c>
-      <c r="I77">
-        <f>ROUND(SUM(B77:F77)/5,2)</f>
-        <v>0.51</v>
-      </c>
-      <c r="J77">
-        <f>ROUND(SUM(B77:G77)/6,2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>0.5</v>
-      </c>
-      <c r="C78">
-        <v>0.70833332999999998</v>
-      </c>
-      <c r="D78">
-        <v>0.73076923000000005</v>
-      </c>
-      <c r="E78">
-        <v>0.42682926999999998</v>
-      </c>
-      <c r="F78">
-        <v>0.75</v>
-      </c>
-      <c r="G78">
-        <v>0.94433400000000001</v>
-      </c>
-      <c r="I78">
-        <f t="shared" ref="I78" si="24">ROUND(SUM(B78:F78)/5,2)</f>
-        <v>0.62</v>
-      </c>
-      <c r="J78">
-        <f t="shared" ref="J78:J79" si="25">ROUND(SUM(B78:G78)/6,2)</f>
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79">
-        <f>ROUND(2*(B77*B78)/(B77+B78),2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="C79">
-        <f t="shared" ref="C79:G79" si="26">ROUND(2*(C77*C78)/(C77+C78),2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="26"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="26"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="26"/>
-        <v>0.74</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="26"/>
-        <v>0.95</v>
-      </c>
-      <c r="I79">
-        <f>ROUND(SUM(B79:F79)/5,2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="25"/>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80">
-        <v>0.90369999999999995</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" t="s">
-        <v>9</v>
-      </c>
-      <c r="J84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85">
-        <v>0.125</v>
-      </c>
-      <c r="C85">
-        <v>0.28333332999999999</v>
-      </c>
-      <c r="D85">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E85">
-        <v>0.92105263000000004</v>
-      </c>
-      <c r="F85">
-        <v>0.72289157000000004</v>
-      </c>
-      <c r="G85">
-        <v>0.95381526000000005</v>
-      </c>
-      <c r="I85">
-        <f>ROUND(SUM(B85:F85)/5,2)</f>
-        <v>0.51</v>
-      </c>
-      <c r="J85">
-        <f>ROUND(SUM(B85:G85)/6,2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>0.5</v>
-      </c>
-      <c r="C86">
-        <v>0.70833332999999998</v>
-      </c>
-      <c r="D86">
-        <v>0.73076923000000005</v>
-      </c>
-      <c r="E86">
-        <v>0.42682926999999998</v>
-      </c>
-      <c r="F86">
-        <v>0.75</v>
-      </c>
-      <c r="G86">
-        <v>0.94433400000000001</v>
-      </c>
-      <c r="I86">
-        <f t="shared" ref="I86" si="27">ROUND(SUM(B86:F86)/5,2)</f>
-        <v>0.62</v>
-      </c>
-      <c r="J86">
-        <f t="shared" ref="J86:J87" si="28">ROUND(SUM(B86:G86)/6,2)</f>
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87">
-        <f>ROUND(2*(B85*B86)/(B85+B86),2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="C87">
-        <f t="shared" ref="C87:G87" si="29">ROUND(2*(C85*C86)/(C85+C86),2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="29"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="29"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="29"/>
-        <v>0.74</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="29"/>
-        <v>0.95</v>
-      </c>
-      <c r="I87">
-        <f>ROUND(SUM(B87:F87)/5,2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="28"/>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88">
-        <v>0.90369999999999995</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>7</v>
-      </c>
-      <c r="G92" t="s">
-        <v>8</v>
-      </c>
-      <c r="I92" t="s">
-        <v>9</v>
-      </c>
-      <c r="J92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93">
-        <v>0.1</v>
-      </c>
-      <c r="C93">
-        <v>0.31707317000000002</v>
-      </c>
-      <c r="D93">
-        <v>0.47368420999999999</v>
-      </c>
-      <c r="E93">
-        <v>0.90243901999999998</v>
-      </c>
-      <c r="F93">
-        <v>0.65217391000000002</v>
-      </c>
-      <c r="G93" t="s">
-        <v>79</v>
-      </c>
-      <c r="I93">
-        <f>ROUND(SUM(B93:F93)/5,2)</f>
-        <v>0.49</v>
-      </c>
-      <c r="J93">
-        <f>ROUND(SUM(B93:G93)/6,2)</f>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94">
-        <v>0.5</v>
-      </c>
-      <c r="C94">
-        <v>0.54166667000000002</v>
-      </c>
-      <c r="D94">
-        <v>0.72</v>
-      </c>
-      <c r="E94">
-        <v>0.44578313000000003</v>
-      </c>
-      <c r="F94">
-        <v>0.73170732000000005</v>
-      </c>
-      <c r="G94" t="s">
-        <v>79</v>
-      </c>
-      <c r="I94">
-        <f t="shared" ref="I94" si="30">ROUND(SUM(B94:F94)/5,2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="J94">
-        <f t="shared" ref="J94:J95" si="31">ROUND(SUM(B94:G94)/6,2)</f>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95">
-        <f>ROUND(2*(B93*B94)/(B93+B94),2)</f>
-        <v>0.17</v>
-      </c>
-      <c r="C95">
-        <f t="shared" ref="C95:G95" si="32">ROUND(2*(C93*C94)/(C93+C94),2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="32"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="32"/>
-        <v>0.6</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="32"/>
-        <v>0.69</v>
-      </c>
-      <c r="G95" t="e">
-        <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I95">
-        <f>ROUND(SUM(B95:F95)/5,2)</f>
-        <v>0.49</v>
-      </c>
-      <c r="J95" t="e">
-        <f t="shared" si="31"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" t="s">
-        <v>53</v>
-      </c>
-      <c r="B96" s="8">
-        <v>0.89980000000000004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" t="s">
-        <v>7</v>
-      </c>
-      <c r="G100" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" t="s">
-        <v>9</v>
-      </c>
-      <c r="J100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101">
-        <v>0.1</v>
-      </c>
-      <c r="C101">
-        <v>0.38095237999999998</v>
-      </c>
-      <c r="D101">
-        <v>0.38636364000000001</v>
-      </c>
-      <c r="E101">
-        <v>0.89743589999999995</v>
-      </c>
-      <c r="F101">
-        <v>0.64</v>
-      </c>
-      <c r="G101">
-        <v>0.95103956999999995</v>
-      </c>
-      <c r="I101">
-        <f>ROUND(SUM(B101:F101)/5,2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="J101">
-        <f>ROUND(SUM(B101:G101)/6,2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102">
-        <v>0.5</v>
-      </c>
-      <c r="C102">
-        <v>0.66666667000000002</v>
-      </c>
-      <c r="D102">
-        <v>0.68</v>
-      </c>
-      <c r="E102">
-        <v>0.42168675</v>
-      </c>
-      <c r="F102">
-        <v>0.78048779999999995</v>
-      </c>
-      <c r="G102">
-        <v>0.93907284999999996</v>
-      </c>
-      <c r="I102">
-        <f t="shared" ref="I102" si="33">ROUND(SUM(B102:F102)/5,2)</f>
-        <v>0.61</v>
-      </c>
-      <c r="J102">
-        <f t="shared" ref="J102:J103" si="34">ROUND(SUM(B102:G102)/6,2)</f>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103">
-        <f>ROUND(2*(B101*B102)/(B101+B102),2)</f>
-        <v>0.17</v>
-      </c>
-      <c r="C103">
-        <f t="shared" ref="C103:G103" si="35">ROUND(2*(C101*C102)/(C101+C102),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="35"/>
-        <v>0.49</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="35"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="35"/>
-        <v>0.7</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="35"/>
-        <v>0.95</v>
-      </c>
-      <c r="I103">
-        <f>ROUND(SUM(B103:F103)/5,2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="34"/>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" t="s">
-        <v>53</v>
-      </c>
-      <c r="B104" s="8">
-        <v>0.89980000000000004</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75">
-      <c r="A106" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="B109" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" t="s">
-        <v>9</v>
-      </c>
-      <c r="J109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>0.4</v>
-      </c>
-      <c r="D110">
-        <v>0.4</v>
-      </c>
-      <c r="E110">
-        <v>0.82142857000000002</v>
-      </c>
-      <c r="F110">
-        <v>0.59523809999999999</v>
-      </c>
-      <c r="G110">
-        <v>0.95345745000000004</v>
-      </c>
-      <c r="I110">
-        <f>ROUND(SUM(B110:F110)/5,2)</f>
-        <v>0.44</v>
-      </c>
-      <c r="J110">
-        <f>ROUND(SUM(B110:G110)/6,2)</f>
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>0.30769231000000002</v>
-      </c>
-      <c r="D111">
-        <v>0.85714285999999995</v>
-      </c>
-      <c r="E111">
-        <v>0.52272726999999997</v>
-      </c>
-      <c r="F111">
-        <v>0.60975610000000002</v>
-      </c>
-      <c r="G111">
-        <v>0.94966887</v>
-      </c>
-      <c r="I111">
-        <f t="shared" ref="I111:I112" si="36">ROUND(SUM(B111:F111)/5,2)</f>
-        <v>0.46</v>
-      </c>
-      <c r="J111">
-        <f t="shared" ref="J111:J112" si="37">ROUND(SUM(B111:G111)/6,2)</f>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <f t="shared" ref="C112:G112" si="38">ROUND(2*(C110*C111)/(C110+C111),2)</f>
-        <v>0.35</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="38"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="38"/>
-        <v>0.64</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="38"/>
-        <v>0.6</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="38"/>
-        <v>0.95</v>
-      </c>
-      <c r="I112">
-        <f t="shared" si="36"/>
-        <v>0.43</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="37"/>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>53</v>
-      </c>
-      <c r="B113">
+      <c r="B67">
         <v>0.90080000000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.75">
-      <c r="A117" s="6"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="7"/>
-    </row>
-    <row r="139" spans="1:1" ht="15.75">
-      <c r="A139" s="5"/>
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5454,19 +4549,19 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -5489,7 +4584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5515,7 +4610,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5541,7 +4636,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5567,7 +4662,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5593,7 +4688,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -5620,7 +4715,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -5628,7 +4723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5637,7 +4732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -5646,7 +4741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5679,7 +4774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ref="B17:G20" si="1">_xlfn.RANK.AVG(B5,$B5:$H5)</f>
         <v>5</v>
@@ -5709,7 +4804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="1"/>
         <v>4.5</v>
@@ -5739,7 +4834,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5769,7 +4864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="1"/>
         <v>5.5</v>
@@ -5799,7 +4894,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5832,7 +4927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -5865,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5874,7 +4969,7 @@
         <v>5.0357142857142847</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5900,17 +4995,17 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -5936,7 +5031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.62</v>
       </c>
@@ -5962,7 +5057,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.71</v>
       </c>
@@ -5988,7 +5083,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.74</v>
       </c>
@@ -6014,7 +5109,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.79</v>
       </c>
@@ -6040,7 +5135,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.93</v>
       </c>
@@ -6066,7 +5161,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
